--- a/Agile/Sprint1.xlsx
+++ b/Agile/Sprint1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9215" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="18468" windowHeight="9215" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -286,16 +286,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +485,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -494,28 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,10 +531,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,6 +551,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,24 +585,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,31 +607,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,7 +746,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,175 +920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,23 +1250,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,11 +1271,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,16 +1311,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,151 +1335,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,7 +1571,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1596,7 +1589,7 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1611,7 +1604,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,12 +1630,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="16" fillId="13" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1654,10 +1647,10 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2679,15 +2672,15 @@
       </c>
       <c r="B20" s="100">
         <f>'Lê Minh Phương'!B5</f>
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="C20" s="100">
         <f>'Lê Minh Phương'!C5</f>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="D20" s="100">
         <f>'Lê Minh Phương'!D5</f>
-        <v>9.625</v>
+        <v>9.75</v>
       </c>
       <c r="E20" s="100">
         <f>'Lê Minh Phương'!E5</f>
@@ -2856,8 +2849,8 @@
   <sheetPr/>
   <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -2879,7 +2872,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="34">
         <f>SUM(K5:AQ5)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="35"/>
@@ -3330,15 +3323,15 @@
       </c>
       <c r="B5" s="42">
         <f>SUM(B6:B1000)/8</f>
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="C5" s="42">
         <f>SUM(C6:C1000)/8</f>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="D5" s="42">
         <f>SUM(D6:D1000)/8</f>
-        <v>9.625</v>
+        <v>9.75</v>
       </c>
       <c r="E5" s="43">
         <f>COUNTIFS($E$6:E1000,"&lt;&gt;"&amp;"",$E$6:E1000,"Bug")</f>
@@ -3361,7 +3354,7 @@
       </c>
       <c r="L5" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="64">
         <f t="shared" si="2"/>
@@ -3506,11 +3499,11 @@
       </c>
       <c r="C6" s="47">
         <f t="shared" ref="C6:C36" si="3">SUM(I6:AQ6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="47">
         <f t="shared" ref="D6:D36" si="4">B6-C6</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>44</v>
@@ -3525,7 +3518,9 @@
       </c>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="L6" s="65">
+        <v>1</v>
+      </c>
       <c r="M6" s="65"/>
       <c r="N6" s="65"/>
       <c r="O6" s="65"/>
@@ -3636,7 +3631,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="47">
         <f t="shared" si="3"/>
@@ -3644,13 +3639,13 @@
       </c>
       <c r="D8" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="51"/>
@@ -3766,24 +3761,26 @@
       </c>
       <c r="C10" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="51"/>
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
       <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
+      <c r="L10" s="65">
+        <v>2</v>
+      </c>
       <c r="M10" s="65"/>
       <c r="N10" s="65"/>
       <c r="O10" s="65"/>
@@ -5416,12 +5413,12 @@
       <formula1>0</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E6:E37">
-      <formula1>$AT$4:$AT$5</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="D6:D36">
       <formula1>-10000</formula1>
       <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E6:E37">
+      <formula1>$AT$4:$AT$5</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="B6:C36">
       <formula1>0</formula1>
@@ -6135,7 +6132,6 @@
       <c r="AO6" s="65"/>
       <c r="AP6" s="65"/>
       <c r="AQ6" s="65"/>
-      <c r="AR6" s="1"/>
       <c r="AS6" s="74" t="s">
         <v>13</v>
       </c>
@@ -6200,7 +6196,6 @@
       <c r="AO7" s="65"/>
       <c r="AP7" s="65"/>
       <c r="AQ7" s="65"/>
-      <c r="AR7" s="1"/>
       <c r="AS7" s="76" t="s">
         <v>16</v>
       </c>
@@ -6263,7 +6258,6 @@
       <c r="AO8" s="65"/>
       <c r="AP8" s="65"/>
       <c r="AQ8" s="65"/>
-      <c r="AR8" s="1"/>
       <c r="AS8" s="70" t="s">
         <v>18</v>
       </c>
@@ -6326,7 +6320,6 @@
       <c r="AO9" s="65"/>
       <c r="AP9" s="65"/>
       <c r="AQ9" s="65"/>
-      <c r="AR9" s="1"/>
       <c r="AS9" s="77"/>
       <c r="AT9" s="80"/>
       <c r="AU9" s="81"/>
@@ -6387,7 +6380,6 @@
       <c r="AO10" s="65"/>
       <c r="AP10" s="65"/>
       <c r="AQ10" s="65"/>
-      <c r="AR10" s="1"/>
       <c r="AS10" s="81"/>
       <c r="AT10" s="80"/>
       <c r="AU10" s="81"/>
@@ -6448,7 +6440,6 @@
       <c r="AO11" s="65"/>
       <c r="AP11" s="65"/>
       <c r="AQ11" s="65"/>
-      <c r="AR11" s="1"/>
       <c r="AS11" s="49" t="s">
         <v>13</v>
       </c>
@@ -7984,12 +7975,12 @@
       <formula1>0</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E6:E37">
-      <formula1>$AT$4:$AT$5</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="D6:D36">
       <formula1>-10000</formula1>
       <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E6:E37">
+      <formula1>$AT$4:$AT$5</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="B6:C36">
       <formula1>0</formula1>
@@ -10548,12 +10539,12 @@
       <formula1>0</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E6:E37">
-      <formula1>$AT$4:$AT$5</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="D6:D36">
       <formula1>-10000</formula1>
       <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E6:E37">
+      <formula1>$AT$4:$AT$5</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="B6:C36">
       <formula1>0</formula1>
@@ -10570,8 +10561,8 @@
   <sheetPr/>
   <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -13112,12 +13103,12 @@
       <formula1>0</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E6:E37">
-      <formula1>$AT$4:$AT$5</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="D6:D36">
       <formula1>-10000</formula1>
       <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E6:E37">
+      <formula1>$AT$4:$AT$5</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="B6:C36">
       <formula1>0</formula1>
@@ -13171,7 +13162,6 @@
       <c r="F1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="6" t="s">
         <v>59</v>
       </c>
@@ -13355,8 +13345,6 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
@@ -13396,8 +13384,6 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="9" t="s">
         <v>18</v>
       </c>
@@ -20802,6 +20788,9 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" sqref="N5">
+      <formula1>[1]Dashboard!#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="H2:H6 M9:M42">
       <formula1>$M$2:$M$6</formula1>
     </dataValidation>
@@ -20814,9 +20803,6 @@
     <dataValidation type="list" allowBlank="1" sqref="Q5">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N5">
-      <formula1>[1]Dashboard!#REF!</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="K9:K42">
       <formula1>$K$2:$K$4</formula1>
     </dataValidation>

--- a/Agile/Sprint1.xlsx
+++ b/Agile/Sprint1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="89">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -185,7 +185,19 @@
     <t>Phân quyền fullstack</t>
   </si>
   <si>
-    <t>Giao diện khách</t>
+    <t>Giao diện menu</t>
+  </si>
+  <si>
+    <t>API thêm quản trị viên</t>
+  </si>
+  <si>
+    <t>API đăng xuất</t>
+  </si>
+  <si>
+    <t>API thêm thực tập sinh</t>
+  </si>
+  <si>
+    <t>Giao diện footer</t>
   </si>
   <si>
     <t>Vẽ luồng và viết mô tả luồng đăng kí,đăng nhập</t>
@@ -286,11 +298,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="mm/dd/yyyy"/>
@@ -486,7 +498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,17 +513,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,7 +543,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,6 +554,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,14 +586,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,29 +621,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,6 +629,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,7 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +770,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,121 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,31 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,9 +1261,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,21 +1313,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1311,36 +1343,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,7 +1365,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1365,130 +1377,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1571,7 +1583,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1589,7 +1601,7 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1604,7 +1616,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,7 +1642,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1647,10 +1659,10 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2398,7 +2410,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2672,15 +2684,15 @@
       </c>
       <c r="B20" s="100">
         <f>'Lê Minh Phương'!B5</f>
-        <v>10.75</v>
+        <v>11.625</v>
       </c>
       <c r="C20" s="100">
         <f>'Lê Minh Phương'!C5</f>
-        <v>1</v>
+        <v>2.8125</v>
       </c>
       <c r="D20" s="100">
         <f>'Lê Minh Phương'!D5</f>
-        <v>9.75</v>
+        <v>8.8125</v>
       </c>
       <c r="E20" s="100">
         <f>'Lê Minh Phương'!E5</f>
@@ -2850,7 +2862,9 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -2872,7 +2886,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="34">
         <f>SUM(K5:AQ5)</f>
-        <v>6</v>
+        <v>20.5</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="35"/>
@@ -3319,19 +3333,19 @@
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A5" s="41">
         <f>COUNTA(A6:A1000)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="42">
         <f>SUM(B6:B1000)/8</f>
-        <v>10.75</v>
+        <v>11.625</v>
       </c>
       <c r="C5" s="42">
         <f>SUM(C6:C1000)/8</f>
-        <v>1</v>
+        <v>2.8125</v>
       </c>
       <c r="D5" s="42">
         <f>SUM(D6:D1000)/8</f>
-        <v>9.75</v>
+        <v>8.8125</v>
       </c>
       <c r="E5" s="43">
         <f>COUNTIFS($E$6:E1000,"&lt;&gt;"&amp;"",$E$6:E1000,"Bug")</f>
@@ -3358,7 +3372,7 @@
       </c>
       <c r="M5" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N5" s="64">
         <f t="shared" si="2"/>
@@ -3366,7 +3380,7 @@
       </c>
       <c r="O5" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P5" s="64">
         <f t="shared" si="2"/>
@@ -3761,17 +3775,17 @@
       </c>
       <c r="C10" s="47">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D10" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="51"/>
@@ -3781,7 +3795,9 @@
       <c r="L10" s="65">
         <v>2</v>
       </c>
-      <c r="M10" s="65"/>
+      <c r="M10" s="65">
+        <v>0.5</v>
+      </c>
       <c r="N10" s="65"/>
       <c r="O10" s="65"/>
       <c r="P10" s="65"/>
@@ -3891,17 +3907,17 @@
       </c>
       <c r="C12" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="47">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="51"/>
@@ -3911,7 +3927,9 @@
       <c r="L12" s="65"/>
       <c r="M12" s="65"/>
       <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
+      <c r="O12" s="65">
+        <v>5</v>
+      </c>
       <c r="P12" s="65"/>
       <c r="Q12" s="65"/>
       <c r="R12" s="65"/>
@@ -3946,7 +3964,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" s="47">
         <f t="shared" si="3"/>
@@ -3954,13 +3972,13 @@
       </c>
       <c r="D13" s="47">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G13" s="53"/>
       <c r="H13" s="51"/>
@@ -4001,13 +4019,15 @@
       <c r="AQ13" s="65"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A14" s="52"/>
+      <c r="A14" s="52" t="s">
+        <v>54</v>
+      </c>
       <c r="B14" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(I14:AQ14)</f>
+        <v>1</v>
       </c>
       <c r="D14" s="47">
         <f t="shared" si="4"/>
@@ -4017,7 +4037,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="51"/>
@@ -4025,7 +4045,9 @@
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
       <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
+      <c r="M14" s="65">
+        <v>1</v>
+      </c>
       <c r="N14" s="65"/>
       <c r="O14" s="65"/>
       <c r="P14" s="65"/>
@@ -4058,13 +4080,15 @@
       <c r="AQ14" s="65"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A15" s="52"/>
+      <c r="A15" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="47">
         <f t="shared" si="4"/>
@@ -4074,7 +4098,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="51"/>
@@ -4084,7 +4108,9 @@
       <c r="L15" s="65"/>
       <c r="M15" s="65"/>
       <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
+      <c r="O15" s="65">
+        <v>1</v>
+      </c>
       <c r="P15" s="65"/>
       <c r="Q15" s="65"/>
       <c r="R15" s="65"/>
@@ -4115,23 +4141,25 @@
       <c r="AQ15" s="65"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A16" s="52"/>
+      <c r="A16" s="52" t="s">
+        <v>56</v>
+      </c>
       <c r="B16" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G16" s="53"/>
       <c r="H16" s="51"/>
@@ -4141,7 +4169,9 @@
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
+      <c r="O16" s="65">
+        <v>1</v>
+      </c>
       <c r="P16" s="65"/>
       <c r="Q16" s="65"/>
       <c r="R16" s="65"/>
@@ -4172,13 +4202,15 @@
       <c r="AQ16" s="65"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A17" s="52"/>
+      <c r="A17" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="B17" s="47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="47">
         <f t="shared" si="4"/>
@@ -4188,7 +4220,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G17" s="53"/>
       <c r="H17" s="51"/>
@@ -4198,7 +4230,9 @@
       <c r="L17" s="65"/>
       <c r="M17" s="65"/>
       <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
+      <c r="O17" s="65">
+        <v>6</v>
+      </c>
       <c r="P17" s="65"/>
       <c r="Q17" s="65"/>
       <c r="R17" s="65"/>
@@ -4229,9 +4263,11 @@
       <c r="AQ17" s="65"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A18" s="52"/>
+      <c r="A18" s="52" t="s">
+        <v>57</v>
+      </c>
       <c r="B18" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="47">
         <f t="shared" si="3"/>
@@ -4239,13 +4275,13 @@
       </c>
       <c r="D18" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="51"/>
@@ -5409,6 +5445,10 @@
     <dataValidation type="list" allowBlank="1" sqref="AU11">
       <formula1>$AU$4:$AU$6</formula1>
     </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" sqref="B13:B14 C13:C14 B6:C12 B15:C36">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="I5:AQ36">
       <formula1>0</formula1>
       <formula2>8</formula2>
@@ -5419,10 +5459,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="E6:E37">
       <formula1>$AT$4:$AT$5</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" sqref="B6:C36">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5436,7 +5472,7 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -7998,7 +8034,7 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -8640,7 +8676,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A6" s="52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="47">
         <v>4</v>
@@ -10562,7 +10598,7 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -11204,7 +11240,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A6" s="46" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B6" s="47">
         <v>0</v>
@@ -13126,7 +13162,7 @@
   <dimension ref="A1:AB242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -13149,7 +13185,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -13157,16 +13193,16 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="22" t="s">
@@ -13174,7 +13210,7 @@
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
@@ -13194,15 +13230,15 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" s="8">
         <f>COUNTIF(J9:J1000,"PASS")</f>
@@ -13227,7 +13263,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="30" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -13243,10 +13279,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -13292,13 +13328,13 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F4" s="8">
         <f>COUNTIF(J9:J1000,"REOPEN")</f>
@@ -13323,7 +13359,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="30" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -13339,7 +13375,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -13378,7 +13414,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -13445,52 +13481,52 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A8" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>

--- a/Agile/Sprint1.xlsx
+++ b/Agile/Sprint1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="90">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -200,6 +200,9 @@
     <t>Giao diện footer</t>
   </si>
   <si>
+    <t>Giao diện trang chủ</t>
+  </si>
+  <si>
     <t>Vẽ luồng và viết mô tả luồng đăng kí,đăng nhập</t>
   </si>
   <si>
@@ -299,9 +302,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="180" formatCode="d"/>
@@ -497,8 +500,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,16 +538,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,14 +547,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,6 +593,20 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -573,19 +614,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,23 +629,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,21 +638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,7 +761,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,13 +809,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,13 +881,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,103 +929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,19 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,31 +1262,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,17 +1307,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1336,36 +1334,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1377,130 +1380,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2684,15 +2687,15 @@
       </c>
       <c r="B20" s="100">
         <f>'Lê Minh Phương'!B5</f>
-        <v>11.625</v>
+        <v>12.875</v>
       </c>
       <c r="C20" s="100">
         <f>'Lê Minh Phương'!C5</f>
-        <v>2.8125</v>
+        <v>3.3125</v>
       </c>
       <c r="D20" s="100">
         <f>'Lê Minh Phương'!D5</f>
-        <v>8.8125</v>
+        <v>9.5625</v>
       </c>
       <c r="E20" s="100">
         <f>'Lê Minh Phương'!E5</f>
@@ -2864,7 +2867,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -2886,7 +2889,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="34">
         <f>SUM(K5:AQ5)</f>
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="35"/>
@@ -3333,19 +3336,19 @@
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A5" s="41">
         <f>COUNTA(A6:A1000)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="42">
         <f>SUM(B6:B1000)/8</f>
-        <v>11.625</v>
+        <v>12.875</v>
       </c>
       <c r="C5" s="42">
         <f>SUM(C6:C1000)/8</f>
-        <v>2.8125</v>
+        <v>3.3125</v>
       </c>
       <c r="D5" s="42">
         <f>SUM(D6:D1000)/8</f>
-        <v>8.8125</v>
+        <v>9.5625</v>
       </c>
       <c r="E5" s="43">
         <f>COUNTIFS($E$6:E1000,"&lt;&gt;"&amp;"",$E$6:E1000,"Bug")</f>
@@ -3376,11 +3379,11 @@
       </c>
       <c r="N5" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="64">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P5" s="64">
         <f t="shared" si="2"/>
@@ -3582,11 +3585,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C7:C19" si="5">SUM(I7:AQ7)</f>
         <v>3</v>
       </c>
       <c r="D7" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D7:D19" si="6">B7-C7</f>
         <v>1</v>
       </c>
       <c r="E7" s="48" t="s">
@@ -3648,11 +3651,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D8" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E8" s="48" t="s">
@@ -3712,11 +3715,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D9" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E9" s="48" t="s">
@@ -3774,11 +3777,11 @@
         <v>2</v>
       </c>
       <c r="C10" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="D10" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="E10" s="48" t="s">
@@ -3840,11 +3843,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D11" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E11" s="48" t="s">
@@ -3906,11 +3909,11 @@
         <v>40</v>
       </c>
       <c r="C12" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D12" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -3967,11 +3970,11 @@
         <v>5</v>
       </c>
       <c r="C13" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D13" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E13" s="48" t="s">
@@ -4026,11 +4029,11 @@
         <v>1</v>
       </c>
       <c r="C14" s="47">
-        <f>SUM(I14:AQ14)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D14" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E14" s="48" t="s">
@@ -4087,11 +4090,11 @@
         <v>1</v>
       </c>
       <c r="C15" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D15" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E15" s="48" t="s">
@@ -4148,11 +4151,11 @@
         <v>2</v>
       </c>
       <c r="C16" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D16" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E16" s="48" t="s">
@@ -4209,11 +4212,11 @@
         <v>6</v>
       </c>
       <c r="C17" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D17" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E17" s="48" t="s">
@@ -4270,12 +4273,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D18" s="47">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>44</v>
@@ -4290,7 +4293,9 @@
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
       <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
+      <c r="N18" s="65">
+        <v>2</v>
+      </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
       <c r="Q18" s="65"/>
@@ -4322,23 +4327,25 @@
       <c r="AQ18" s="65"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A19" s="52"/>
+      <c r="A19" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="B19" s="47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C19" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D19" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="51"/>
@@ -4347,8 +4354,12 @@
       <c r="K19" s="65"/>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
+      <c r="N19" s="65">
+        <v>1</v>
+      </c>
+      <c r="O19" s="65">
+        <v>1</v>
+      </c>
       <c r="P19" s="65"/>
       <c r="Q19" s="65"/>
       <c r="R19" s="65"/>
@@ -5439,21 +5450,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
+    <dataValidation type="decimal" operator="between" allowBlank="1" sqref="B6 B7:B12 B13:B14 B15:B19 C6:C19 B20:C36">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="AS11 F6:F37">
       <formula1>$AS$4:$AS$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="AU11">
       <formula1>$AU$4:$AU$6</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" sqref="B13:B14 C13:C14 B6:C12 B15:C36">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="I5:AQ36">
       <formula1>0</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" sqref="D6:D36">
+    <dataValidation type="decimal" operator="between" allowBlank="1" sqref="D6:D19 D20:D36">
       <formula1>-10000</formula1>
       <formula2>1000</formula2>
     </dataValidation>
@@ -8676,7 +8687,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A6" s="52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="47">
         <v>4</v>
@@ -11240,7 +11251,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A6" s="46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="47">
         <v>0</v>
@@ -13185,7 +13196,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -13193,16 +13204,16 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="22" t="s">
@@ -13210,7 +13221,7 @@
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
@@ -13230,15 +13241,15 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="8">
         <f>COUNTIF(J9:J1000,"PASS")</f>
@@ -13263,7 +13274,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -13279,10 +13290,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -13328,13 +13339,13 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="8">
         <f>COUNTIF(J9:J1000,"REOPEN")</f>
@@ -13359,7 +13370,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -13375,7 +13386,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -13414,7 +13425,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -13481,52 +13492,52 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A8" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>

--- a/Agile/Sprint1.xlsx
+++ b/Agile/Sprint1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="106">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -203,6 +203,54 @@
     <t>Giao diện trang chủ</t>
   </si>
   <si>
+    <t xml:space="preserve">API thêm hướng dẫn </t>
+  </si>
+  <si>
+    <t>API quên mật khẩu</t>
+  </si>
+  <si>
+    <t>API kiểm tra mã code</t>
+  </si>
+  <si>
+    <t>API yêu cầu thêm vào khóa học của công ty</t>
+  </si>
+  <si>
+    <t>Giao diện quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Giao diện kiểm tra mã code</t>
+  </si>
+  <si>
+    <t>API thêm khóa học</t>
+  </si>
+  <si>
+    <t>API sửa khóa học</t>
+  </si>
+  <si>
+    <t>API xóa khóa học</t>
+  </si>
+  <si>
+    <t>API danh sách khóa học</t>
+  </si>
+  <si>
+    <t>API chi tiết khóa học</t>
+  </si>
+  <si>
+    <t>API danh sách 10 khóa học tốt nhất</t>
+  </si>
+  <si>
+    <t>API tìm kiếm khóa học theo ...</t>
+  </si>
+  <si>
+    <t>API thêm khuyến mại cho khóa học</t>
+  </si>
+  <si>
+    <t>API thêm khuyến mại tối da</t>
+  </si>
+  <si>
+    <t>Giao diện đổi mật khẩu</t>
+  </si>
+  <si>
     <t>Vẽ luồng và viết mô tả luồng đăng kí,đăng nhập</t>
   </si>
   <si>
@@ -301,12 +349,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -500,17 +548,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,13 +631,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -538,8 +647,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,53 +679,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -608,37 +686,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +809,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +869,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,85 +959,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,67 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,6 +1310,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1272,21 +1329,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1333,9 +1375,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,26 +1393,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1380,130 +1428,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="40" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1634,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1604,7 +1652,7 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1619,7 +1667,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1645,12 +1693,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="16" fillId="13" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1662,10 +1710,10 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2687,15 +2735,15 @@
       </c>
       <c r="B20" s="100">
         <f>'Lê Minh Phương'!B5</f>
-        <v>12.875</v>
+        <v>18.875</v>
       </c>
       <c r="C20" s="100">
         <f>'Lê Minh Phương'!C5</f>
-        <v>3.3125</v>
+        <v>4.6875</v>
       </c>
       <c r="D20" s="100">
         <f>'Lê Minh Phương'!D5</f>
-        <v>9.5625</v>
+        <v>14.1875</v>
       </c>
       <c r="E20" s="100">
         <f>'Lê Minh Phương'!E5</f>
@@ -2864,10 +2912,10 @@
   <sheetPr/>
   <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -2889,7 +2937,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="34">
         <f>SUM(K5:AQ5)</f>
-        <v>24.5</v>
+        <v>35.5</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="35"/>
@@ -3336,19 +3384,19 @@
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A5" s="41">
         <f>COUNTA(A6:A1000)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B5" s="42">
         <f>SUM(B6:B1000)/8</f>
-        <v>12.875</v>
+        <v>18.875</v>
       </c>
       <c r="C5" s="42">
         <f>SUM(C6:C1000)/8</f>
-        <v>3.3125</v>
+        <v>4.6875</v>
       </c>
       <c r="D5" s="42">
         <f>SUM(D6:D1000)/8</f>
-        <v>9.5625</v>
+        <v>14.1875</v>
       </c>
       <c r="E5" s="43">
         <f>COUNTIFS($E$6:E1000,"&lt;&gt;"&amp;"",$E$6:E1000,"Bug")</f>
@@ -3387,11 +3435,11 @@
       </c>
       <c r="P5" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q5" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="64">
         <f t="shared" si="2"/>
@@ -3712,21 +3760,21 @@
         <v>49</v>
       </c>
       <c r="B9" s="47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="47">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="51"/>
@@ -3738,7 +3786,9 @@
       <c r="N9" s="65"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
+      <c r="Q9" s="65">
+        <v>2</v>
+      </c>
       <c r="R9" s="65"/>
       <c r="S9" s="65"/>
       <c r="T9" s="65"/>
@@ -3854,7 +3904,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="51"/>
@@ -4213,11 +4263,11 @@
       </c>
       <c r="C17" s="47">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="47">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E17" s="48" t="s">
         <v>44</v>
@@ -4236,7 +4286,9 @@
       <c r="O17" s="65">
         <v>6</v>
       </c>
-      <c r="P17" s="65"/>
+      <c r="P17" s="65">
+        <v>2</v>
+      </c>
       <c r="Q17" s="65"/>
       <c r="R17" s="65"/>
       <c r="S17" s="65"/>
@@ -4335,11 +4387,11 @@
       </c>
       <c r="C19" s="47">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="47">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>44</v>
@@ -4360,7 +4412,9 @@
       <c r="O19" s="65">
         <v>1</v>
       </c>
-      <c r="P19" s="65"/>
+      <c r="P19" s="65">
+        <v>3</v>
+      </c>
       <c r="Q19" s="65"/>
       <c r="R19" s="65"/>
       <c r="S19" s="65"/>
@@ -4390,23 +4444,25 @@
       <c r="AQ19" s="65"/>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A20" s="52"/>
+      <c r="A20" s="52" t="s">
+        <v>59</v>
+      </c>
       <c r="B20" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="51"/>
@@ -4417,7 +4473,9 @@
       <c r="M20" s="65"/>
       <c r="N20" s="65"/>
       <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
+      <c r="P20" s="65">
+        <v>2</v>
+      </c>
       <c r="Q20" s="65"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
@@ -4447,9 +4505,11 @@
       <c r="AQ20" s="65"/>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A21" s="52"/>
+      <c r="A21" s="52" t="s">
+        <v>60</v>
+      </c>
       <c r="B21" s="47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="47">
         <f t="shared" si="3"/>
@@ -4457,7 +4517,7 @@
       </c>
       <c r="D21" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>44</v>
@@ -4504,9 +4564,11 @@
       <c r="AQ21" s="65"/>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A22" s="52"/>
+      <c r="A22" s="52" t="s">
+        <v>61</v>
+      </c>
       <c r="B22" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" s="47">
         <f t="shared" si="3"/>
@@ -4514,7 +4576,7 @@
       </c>
       <c r="D22" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>44</v>
@@ -4561,7 +4623,9 @@
       <c r="AQ22" s="65"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A23" s="52"/>
+      <c r="A23" s="52" t="s">
+        <v>62</v>
+      </c>
       <c r="B23" s="47">
         <v>0</v>
       </c>
@@ -4618,9 +4682,11 @@
       <c r="AQ23" s="65"/>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A24" s="52"/>
+      <c r="A24" s="52" t="s">
+        <v>63</v>
+      </c>
       <c r="B24" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="47">
         <f t="shared" si="3"/>
@@ -4628,7 +4694,7 @@
       </c>
       <c r="D24" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>44</v>
@@ -4675,9 +4741,11 @@
       <c r="AQ24" s="65"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A25" s="52"/>
+      <c r="A25" s="52" t="s">
+        <v>64</v>
+      </c>
       <c r="B25" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" s="47">
         <f t="shared" si="3"/>
@@ -4685,7 +4753,7 @@
       </c>
       <c r="D25" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>44</v>
@@ -4732,9 +4800,11 @@
       <c r="AQ25" s="65"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A26" s="52"/>
+      <c r="A26" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="B26" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" s="47">
         <f t="shared" si="3"/>
@@ -4742,7 +4812,7 @@
       </c>
       <c r="D26" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>44</v>
@@ -4789,9 +4859,11 @@
       <c r="AQ26" s="65"/>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A27" s="52"/>
+      <c r="A27" s="52" t="s">
+        <v>66</v>
+      </c>
       <c r="B27" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27" s="47">
         <f t="shared" si="3"/>
@@ -4799,7 +4871,7 @@
       </c>
       <c r="D27" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>44</v>
@@ -4846,9 +4918,11 @@
       <c r="AQ27" s="65"/>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A28" s="52"/>
+      <c r="A28" s="52" t="s">
+        <v>67</v>
+      </c>
       <c r="B28" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="47">
         <f t="shared" si="3"/>
@@ -4856,7 +4930,7 @@
       </c>
       <c r="D28" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>44</v>
@@ -4903,9 +4977,11 @@
       <c r="AQ28" s="65"/>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A29" s="52"/>
+      <c r="A29" s="52" t="s">
+        <v>68</v>
+      </c>
       <c r="B29" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="47">
         <f t="shared" si="3"/>
@@ -4913,7 +4989,7 @@
       </c>
       <c r="D29" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="48" t="s">
         <v>44</v>
@@ -4960,9 +5036,11 @@
       <c r="AQ29" s="65"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A30" s="52"/>
+      <c r="A30" s="52" t="s">
+        <v>69</v>
+      </c>
       <c r="B30" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="47">
         <f t="shared" si="3"/>
@@ -4970,7 +5048,7 @@
       </c>
       <c r="D30" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="48" t="s">
         <v>44</v>
@@ -5017,9 +5095,11 @@
       <c r="AQ30" s="65"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A31" s="52"/>
+      <c r="A31" s="52" t="s">
+        <v>70</v>
+      </c>
       <c r="B31" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="47">
         <f t="shared" si="3"/>
@@ -5027,7 +5107,7 @@
       </c>
       <c r="D31" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="48" t="s">
         <v>44</v>
@@ -5074,9 +5154,11 @@
       <c r="AQ31" s="65"/>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A32" s="52"/>
+      <c r="A32" s="52" t="s">
+        <v>71</v>
+      </c>
       <c r="B32" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="47">
         <f t="shared" si="3"/>
@@ -5084,7 +5166,7 @@
       </c>
       <c r="D32" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>44</v>
@@ -5131,9 +5213,11 @@
       <c r="AQ32" s="65"/>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A33" s="55"/>
+      <c r="A33" s="55" t="s">
+        <v>72</v>
+      </c>
       <c r="B33" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C33" s="47">
         <f t="shared" si="3"/>
@@ -5141,7 +5225,7 @@
       </c>
       <c r="D33" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" s="48" t="s">
         <v>44</v>
@@ -5188,7 +5272,9 @@
       <c r="AQ33" s="65"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A34" s="55"/>
+      <c r="A34" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="B34" s="47">
         <v>0</v>
       </c>
@@ -5245,23 +5331,25 @@
       <c r="AQ34" s="65"/>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A35" s="55"/>
+      <c r="A35" s="55" t="s">
+        <v>74</v>
+      </c>
       <c r="B35" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G35" s="55"/>
       <c r="H35" s="56"/>
@@ -5272,7 +5360,9 @@
       <c r="M35" s="65"/>
       <c r="N35" s="65"/>
       <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
+      <c r="P35" s="65">
+        <v>2</v>
+      </c>
       <c r="Q35" s="65"/>
       <c r="R35" s="65"/>
       <c r="S35" s="65"/>
@@ -8045,7 +8135,7 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -8687,7 +8777,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A6" s="52" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B6" s="47">
         <v>4</v>
@@ -11251,7 +11341,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A6" s="46" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B6" s="47">
         <v>0</v>
@@ -13196,7 +13286,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -13204,16 +13294,16 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="22" t="s">
@@ -13221,7 +13311,7 @@
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
@@ -13241,15 +13331,15 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F2" s="8">
         <f>COUNTIF(J9:J1000,"PASS")</f>
@@ -13274,7 +13364,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="30" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -13290,10 +13380,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -13339,13 +13429,13 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F4" s="8">
         <f>COUNTIF(J9:J1000,"REOPEN")</f>
@@ -13370,7 +13460,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="30" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -13386,7 +13476,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -13425,7 +13515,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -13492,52 +13582,52 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A8" s="12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="K8" s="12" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>

--- a/Agile/Sprint1.xlsx
+++ b/Agile/Sprint1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="107">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -251,6 +251,9 @@
     <t>Giao diện đổi mật khẩu</t>
   </si>
   <si>
+    <t>Giao diện điều khoản thực tập sinh</t>
+  </si>
+  <si>
     <t>Vẽ luồng và viết mô tả luồng đăng kí,đăng nhập</t>
   </si>
   <si>
@@ -349,12 +352,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -555,10 +558,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,7 +575,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,14 +599,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,6 +619,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -631,9 +635,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,32 +666,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,8 +680,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,7 +812,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,25 +902,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,145 +986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,8 +1316,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1330,21 +1333,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,6 +1361,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1387,33 +1405,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1431,127 +1434,127 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1634,7 +1637,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1652,7 +1655,7 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1667,7 +1670,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1693,12 +1696,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="16" fillId="13" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,10 +1713,10 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2461,7 +2464,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2735,15 +2738,15 @@
       </c>
       <c r="B20" s="100">
         <f>'Lê Minh Phương'!B5</f>
-        <v>18.875</v>
+        <v>20.25</v>
       </c>
       <c r="C20" s="100">
         <f>'Lê Minh Phương'!C5</f>
-        <v>4.6875</v>
+        <v>7.625</v>
       </c>
       <c r="D20" s="100">
         <f>'Lê Minh Phương'!D5</f>
-        <v>14.1875</v>
+        <v>12.625</v>
       </c>
       <c r="E20" s="100">
         <f>'Lê Minh Phương'!E5</f>
@@ -2912,10 +2915,10 @@
   <sheetPr/>
   <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -2937,7 +2940,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="34">
         <f>SUM(K5:AQ5)</f>
-        <v>35.5</v>
+        <v>59</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="35"/>
@@ -3384,19 +3387,19 @@
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A5" s="41">
         <f>COUNTA(A6:A1000)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="42">
         <f>SUM(B6:B1000)/8</f>
-        <v>18.875</v>
+        <v>20.25</v>
       </c>
       <c r="C5" s="42">
         <f>SUM(C6:C1000)/8</f>
-        <v>4.6875</v>
+        <v>7.625</v>
       </c>
       <c r="D5" s="42">
         <f>SUM(D6:D1000)/8</f>
-        <v>14.1875</v>
+        <v>12.625</v>
       </c>
       <c r="E5" s="43">
         <f>COUNTIFS($E$6:E1000,"&lt;&gt;"&amp;"",$E$6:E1000,"Bug")</f>
@@ -3439,15 +3442,15 @@
       </c>
       <c r="Q5" s="64">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R5" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S5" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="T5" s="64">
         <f t="shared" si="2"/>
@@ -3890,21 +3893,21 @@
         <v>51</v>
       </c>
       <c r="B11" s="47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="47">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="51"/>
@@ -3916,7 +3919,9 @@
       <c r="N11" s="65"/>
       <c r="O11" s="65"/>
       <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
+      <c r="Q11" s="65">
+        <v>5</v>
+      </c>
       <c r="R11" s="65"/>
       <c r="S11" s="65"/>
       <c r="T11" s="65"/>
@@ -3960,11 +3965,11 @@
       </c>
       <c r="C12" s="47">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="47">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="48" t="s">
         <v>44</v>
@@ -3984,7 +3989,9 @@
         <v>5</v>
       </c>
       <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
+      <c r="Q12" s="65">
+        <v>2</v>
+      </c>
       <c r="R12" s="65"/>
       <c r="S12" s="65"/>
       <c r="T12" s="65"/>
@@ -4513,17 +4520,17 @@
       </c>
       <c r="C21" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" s="47">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="51"/>
@@ -4536,7 +4543,9 @@
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
       <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
+      <c r="R21" s="65">
+        <v>4</v>
+      </c>
       <c r="S21" s="65"/>
       <c r="T21" s="65"/>
       <c r="U21" s="65"/>
@@ -4572,17 +4581,17 @@
       </c>
       <c r="C22" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="47">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="51"/>
@@ -4595,7 +4604,9 @@
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
       <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
+      <c r="R22" s="65">
+        <v>2</v>
+      </c>
       <c r="S22" s="65"/>
       <c r="T22" s="65"/>
       <c r="U22" s="65"/>
@@ -4627,7 +4638,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" s="47">
         <f t="shared" si="3"/>
@@ -4635,7 +4646,7 @@
       </c>
       <c r="D23" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>44</v>
@@ -4700,7 +4711,7 @@
         <v>44</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="51"/>
@@ -4759,7 +4770,7 @@
         <v>44</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="51"/>
@@ -4808,17 +4819,17 @@
       </c>
       <c r="C26" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D26" s="47">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G26" s="53"/>
       <c r="H26" s="51"/>
@@ -4832,7 +4843,9 @@
       <c r="P26" s="65"/>
       <c r="Q26" s="65"/>
       <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
+      <c r="S26" s="65">
+        <v>0.5</v>
+      </c>
       <c r="T26" s="65"/>
       <c r="U26" s="65"/>
       <c r="V26" s="65"/>
@@ -4867,17 +4880,17 @@
       </c>
       <c r="C27" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="47">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G27" s="53"/>
       <c r="H27" s="51"/>
@@ -4891,7 +4904,9 @@
       <c r="P27" s="65"/>
       <c r="Q27" s="65"/>
       <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
+      <c r="S27" s="65">
+        <v>0.5</v>
+      </c>
       <c r="T27" s="65"/>
       <c r="U27" s="65"/>
       <c r="V27" s="65"/>
@@ -4926,17 +4941,17 @@
       </c>
       <c r="C28" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D28" s="47">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G28" s="53"/>
       <c r="H28" s="51"/>
@@ -4950,7 +4965,9 @@
       <c r="P28" s="65"/>
       <c r="Q28" s="65"/>
       <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
+      <c r="S28" s="65">
+        <v>0.5</v>
+      </c>
       <c r="T28" s="65"/>
       <c r="U28" s="65"/>
       <c r="V28" s="65"/>
@@ -4985,17 +5002,17 @@
       </c>
       <c r="C29" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" s="54"/>
       <c r="H29" s="51"/>
@@ -5009,7 +5026,9 @@
       <c r="P29" s="65"/>
       <c r="Q29" s="65"/>
       <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
+      <c r="S29" s="65">
+        <v>1</v>
+      </c>
       <c r="T29" s="65"/>
       <c r="U29" s="65"/>
       <c r="V29" s="65"/>
@@ -5044,17 +5063,17 @@
       </c>
       <c r="C30" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G30" s="53"/>
       <c r="H30" s="51"/>
@@ -5068,7 +5087,9 @@
       <c r="P30" s="65"/>
       <c r="Q30" s="65"/>
       <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
+      <c r="S30" s="65">
+        <v>1</v>
+      </c>
       <c r="T30" s="65"/>
       <c r="U30" s="65"/>
       <c r="V30" s="65"/>
@@ -5103,17 +5124,17 @@
       </c>
       <c r="C31" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="47">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="51"/>
@@ -5127,7 +5148,9 @@
       <c r="P31" s="65"/>
       <c r="Q31" s="65"/>
       <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
+      <c r="S31" s="65">
+        <v>1</v>
+      </c>
       <c r="T31" s="65"/>
       <c r="U31" s="65"/>
       <c r="V31" s="65"/>
@@ -5162,17 +5185,17 @@
       </c>
       <c r="C32" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="47">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G32" s="53"/>
       <c r="H32" s="51"/>
@@ -5186,7 +5209,9 @@
       <c r="P32" s="65"/>
       <c r="Q32" s="65"/>
       <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
+      <c r="S32" s="65">
+        <v>1</v>
+      </c>
       <c r="T32" s="65"/>
       <c r="U32" s="65"/>
       <c r="V32" s="65"/>
@@ -5221,11 +5246,11 @@
       </c>
       <c r="C33" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="47">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="48" t="s">
         <v>44</v>
@@ -5245,7 +5270,9 @@
       <c r="P33" s="65"/>
       <c r="Q33" s="65"/>
       <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
+      <c r="S33" s="65">
+        <v>1</v>
+      </c>
       <c r="T33" s="65"/>
       <c r="U33" s="65"/>
       <c r="V33" s="65"/>
@@ -5276,15 +5303,15 @@
         <v>73</v>
       </c>
       <c r="B34" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="48" t="s">
         <v>44</v>
@@ -5304,7 +5331,9 @@
       <c r="P34" s="65"/>
       <c r="Q34" s="65"/>
       <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
+      <c r="S34" s="65">
+        <v>1</v>
+      </c>
       <c r="T34" s="65"/>
       <c r="U34" s="65"/>
       <c r="V34" s="65"/>
@@ -5392,23 +5421,25 @@
       <c r="AQ35" s="65"/>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:43">
-      <c r="A36" s="55"/>
+      <c r="A36" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="B36" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="56"/>
@@ -5421,7 +5452,9 @@
       <c r="O36" s="65"/>
       <c r="P36" s="65"/>
       <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
+      <c r="R36" s="65">
+        <v>3</v>
+      </c>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
       <c r="U36" s="65"/>
@@ -5550,13 +5583,13 @@
     <dataValidation type="list" allowBlank="1" sqref="AU11">
       <formula1>$AU$4:$AU$6</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" sqref="I5:AQ36">
-      <formula1>0</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" sqref="D6:D19 D20:D36">
       <formula1>-10000</formula1>
       <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" sqref="I26:R26 S26 T26:AQ26 I27:R27 S27 T27:AQ27 I28:AQ28 S29:S34 I35:AQ36 I29:R34 T29:AQ34 I5:AQ25">
+      <formula1>0</formula1>
+      <formula2>8</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="E6:E37">
       <formula1>$AT$4:$AT$5</formula1>
@@ -5573,7 +5606,7 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -8135,7 +8168,7 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -8777,7 +8810,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A6" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="47">
         <v>4</v>
@@ -10699,7 +10732,7 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -11341,7 +11374,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:47">
       <c r="A6" s="46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="47">
         <v>0</v>
@@ -13263,7 +13296,7 @@
   <dimension ref="A1:AB242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -13286,7 +13319,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -13294,16 +13327,16 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="22" t="s">
@@ -13311,7 +13344,7 @@
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
@@ -13331,15 +13364,15 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="8">
         <f>COUNTIF(J9:J1000,"PASS")</f>
@@ -13364,7 +13397,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -13380,10 +13413,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -13429,13 +13462,13 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" s="8">
         <f>COUNTIF(J9:J1000,"REOPEN")</f>
@@ -13460,7 +13493,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -13476,7 +13509,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -13515,7 +13548,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -13582,52 +13615,52 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A8" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
